--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45776</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45387.35072916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45387.36229166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45545.5043287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45184.75254629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45775.48</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45771.49649305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45824.74599537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45764.43978009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45075</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44361.48423611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44519.41203703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44584.74694444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44536.64174768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44315.61004629629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44343.74252314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44266.66760416667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44292.42471064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44538.49733796297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44315.46325231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44785.51939814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44469.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44266.65212962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44285</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44266</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44687.44456018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44426</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44785.52291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44538.5125462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44795.48758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44795.48535879629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44785.52829861111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44785.53045138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>45524.30751157407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>45524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45722.68349537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45768.8713425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45768.87210648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44538.50564814815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45160.77502314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>45630</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45566.496875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>45243.57956018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45166</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45531.4332175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45531.43494212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44503.38475694445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45394</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44720.40994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>45019.30383101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45748.47081018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45089.96881944445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45541.39284722223</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45478.3252199074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45183</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45090.9447337963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45603.49332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45804.63818287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44371.53730324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45707.46611111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45824.76096064815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45632.40393518518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45548.41292824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>45002.40217592593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>45103.36616898148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>45824.76346064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45257.56932870371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45583.70912037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45742.60491898148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>44537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>45818.62765046296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45899.65248842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>45575.47465277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>44895.67813657408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44974</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44974</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45609.41010416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44944.70200231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45824</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45169</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45824.74728009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45908.45122685185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44431.48305555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45589.8465162037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45394</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45824.75438657407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44906.90962962963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45764.43010416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44687.44261574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45890</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45831.52273148148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45916.45835648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45917.42762731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45919.60940972222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45919.62141203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45831.61435185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45833.6284375</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44944.66162037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45833.51048611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45833.51385416667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45566.44601851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>45614.3022337963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45834.50756944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45835.50236111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45930.45715277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45834</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45930.45395833333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45176.35422453703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45420.44768518519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45933.36778935185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45933.85197916667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45933.84990740741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44944.67371527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>45369.69503472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>45940.52149305555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>45470.79201388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45942.7809837963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44795.48201388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45940.53121527778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45090.93861111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45561.57283564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45716.54331018519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45761</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45265</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45755</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45862.61262731482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45862</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44727.4684837963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>45233.4384375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44295</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>45566.52706018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>45489.56859953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45742.64620370371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45960.52046296297</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44515.62417824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45960.51917824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45965.55086805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45755.37185185185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45090.95387731482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45218.53603009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44266.65693287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45883.44046296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45720.63358796296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>46010</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45973.73524305555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>46010</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45790.53807870371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45176</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>46010</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>46021.43207175926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45631.49766203704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>46021.47168981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>46021.43547453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45980</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45561.57412037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45386.57976851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45252.7372800926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45959</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>44906.89612268518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45209</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45988.48037037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45992.49255787037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45589.84282407408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44972</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45665.63168981481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45265</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44323</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45999.55688657407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>44428</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45999.55611111111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>45714</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>46045.62513888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>46045.62002314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>46045.63331018519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>46045.64197916666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>46045.62402777778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45251</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>46045.62255787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>46045.63888888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44809</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45483</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>46006.35954861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>46006.36180555556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>45719.45627314815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>46050.56890046296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45229.50737268518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44929</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>45617.76770833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>46052.61423611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>46055.67207175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45569</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44755.30305555555</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44494</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45243.58105324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>44908</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45631.49569444444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>45707.46462962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45252.73967592593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45561</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45632.40585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45734.52155092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45394.62971064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45699.56878472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45209</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44906.9374537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44805.55697916666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44531</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45089.98043981481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45524.31809027777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45401</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44494</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45713.54516203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>45098.5205787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>45231.54010416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>45575.49673611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45078.67081018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45566.60034722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45251</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44809.40762731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45243.52725694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44348.39732638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45231.55700231482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45541.39113425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44939.71349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45758.73297453704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45565.70193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45169</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45404</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45566.46574074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44664.84104166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44469.70724537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44439.5778587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45617</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45786.58416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45789.6207175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>45734.51854166666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45743.4346875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45721.76960648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45713.53513888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45630.70841435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45527.61861111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45680.72295138889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45776</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45387.35072916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45387.36229166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45545.5043287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45184.75254629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45775.48</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45771.49649305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45824.74599537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45764.43978009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45075</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44361.48423611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44519.41203703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44584.74694444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44536.64174768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44315.61004629629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44343.74252314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44266.66760416667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44292.42471064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44538.49733796297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44315.46325231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44785.51939814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44469.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44266.65212962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44285</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44266</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44687.44456018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44426</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44785.52291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44538.5125462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44795.48758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44795.48535879629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44785.52829861111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44785.53045138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>45524.30751157407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>45524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45722.68349537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45768.8713425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45768.87210648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44538.50564814815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45160.77502314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>45630</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45566.496875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>45243.57956018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45166</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45531.4332175926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45531.43494212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44503.38475694445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45394</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44720.40994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>45019.30383101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45748.47081018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45089.96881944445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45541.39284722223</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45478.3252199074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45183</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45090.9447337963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45603.49332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45804.63818287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44371.53730324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45707.46611111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45824.76096064815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45632.40393518518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45548.41292824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>45002.40217592593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>45103.36616898148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>45824.76346064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45257.56932870371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45583.70912037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45742.60491898148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>44537</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>45818.62765046296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45899.65248842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>45575.47465277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>44895.67813657408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44974</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44974</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45609.41010416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44944.70200231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45824</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45169</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45824.74728009259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45908.45122685185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44431.48305555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45589.8465162037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45394</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45824.75438657407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44906.90962962963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45764.43010416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44687.44261574074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45890</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45831.52273148148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45916.45835648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45917.42762731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45919.60940972222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45919.62141203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45831.61435185185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45833.6284375</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44944.66162037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45833.51048611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45833.51385416667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>44937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45566.44601851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>45614.3022337963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45524</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45834.50756944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45835.50236111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45930.45715277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45834</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45930.45395833333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45176.35422453703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45420.44768518519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45933.36778935185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45933.85197916667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45933.84990740741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44944.67371527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>45369.69503472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>45940.52149305555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>45470.79201388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45942.7809837963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44795.48201388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45940.53121527778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45090.93861111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45561.57283564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>44595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45716.54331018519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45761</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45265</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45755</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45862.61262731482</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45862</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44727.4684837963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>45233.4384375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44295</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>45566.52706018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>45489.56859953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45742.64620370371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45960.52046296297</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>44515.62417824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45960.51917824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45965.55086805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45755.37185185185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45090.95387731482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45218.53603009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44266.65693287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45883.44046296296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45720.63358796296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>46010</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45973.73524305555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>46010</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45790.53807870371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45176</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>46010</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>46021.43207175926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45631.49766203704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>46021.47168981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>46021.43547453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45980</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45561.57412037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45386.57976851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45252.7372800926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45959</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>44906.89612268518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45209</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45988.48037037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45992.49255787037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45589.84282407408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>44972</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45665.63168981481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45265</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>44323</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>45999.55688657407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>44428</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45999.55611111111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>45714</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>46045.62513888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>46045.62002314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>46045.63331018519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>46045.64197916666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>46045.62402777778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45251</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>46045.62255787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>46045.63888888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44809</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45483</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>46006.35954861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>46006.36180555556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>45719.45627314815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>46050.56890046296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45229.50737268518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44929</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>45617.76770833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>46052.61423611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>46055.67207175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45569</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44755.30305555555</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44494</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45243.58105324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>44908</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45631.49569444444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>45707.46462962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45252.73967592593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45561</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45632.40585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45734.52155092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45394.62971064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45699.56878472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45209</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44906.9374537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44805.55697916666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44531</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45089.98043981481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45524.31809027777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45401</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44494</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45713.54516203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>45098.5205787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
         <v>45231.54010416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>45575.49673611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45078.67081018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45566.60034722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45251</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44809.40762731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45243.52725694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44348.39732638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45231.55700231482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45541.39113425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44939.71349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45758.73297453704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45565.70193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45169</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45404</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45566.46574074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44664.84104166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44469.70724537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44439.5778587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45617</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45786.58416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45789.6207175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>45734.51854166666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45743.4346875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45721.76960648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45713.53513888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45630.70841435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45527.61861111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45680.72295138889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45776</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45387.35072916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45387.36229166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45545.5043287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45184.75254629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45775.48</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45771.49649305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45824.74599537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45764.43978009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45075</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44361.48423611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44519.41203703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44584.74694444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44536.64174768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44315.61004629629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44343.74252314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44266.66760416667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44292.42471064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44538.49733796297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44315.46325231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44785.51939814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44469.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44266.65212962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44285</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44266</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44687.44456018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44426</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44785.52291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44538.5125462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44795.48758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44795.48535879629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44785.52829861111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44785.53045138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>45524.30751157407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>45524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45722.68349537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45768.8713425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45768.87210648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4374,14 +4374,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38073-2023</t>
+          <t>A 45224-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45160.77502314815</v>
+        <v>44439.5778587963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4431,14 +4431,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 70945-2021</t>
+          <t>A 54416-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44538.50564814815</v>
+        <v>45617</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4450,13 +4450,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4493,14 +4488,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 42757-2024</t>
+          <t>A 38073-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45566.496875</v>
+        <v>45160.77502314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4513,7 +4508,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4550,14 +4545,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32737-2021</t>
+          <t>A 22435-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44375</v>
+        <v>45786.58416666667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4569,8 +4564,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4607,14 +4607,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57454-2024</t>
+          <t>A 22761-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45630</v>
+        <v>45789.6207175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4664,14 +4664,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13008-2025</t>
+          <t>A 70945-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45734.51854166666</v>
+        <v>44538.50564814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4683,8 +4683,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4721,14 +4726,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 14862-2025</t>
+          <t>A 63731-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45743.4346875</v>
+        <v>46010</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,8 +4745,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4778,14 +4788,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4436-2026</t>
+          <t>A 13008-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46045.62513888889</v>
+        <v>45734.51854166666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,13 +4807,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56541-2023</t>
+          <t>A 32737-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45243.57956018519</v>
+        <v>44375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4859,13 +4864,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4902,14 +4902,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10667-2025</t>
+          <t>A 14862-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45721.76960648148</v>
+        <v>45743.4346875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4959,14 +4959,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8984-2025</t>
+          <t>A 56110-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45713.53513888889</v>
+        <v>45973.73524305555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4978,13 +4978,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4430-2026</t>
+          <t>A 10667-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46045.62002314815</v>
+        <v>45721.76960648148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,13 +5035,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5083,14 +5073,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4439-2026</t>
+          <t>A 63732-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46045.63331018519</v>
+        <v>46010</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5104,11 +5094,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5145,14 +5135,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4454-2026</t>
+          <t>A 8984-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46045.64197916666</v>
+        <v>45713.53513888889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5170,7 +5160,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5207,14 +5197,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39285-2023</t>
+          <t>A 42757-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45166</v>
+        <v>45566.496875</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5227,7 +5217,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5264,14 +5254,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39287-2023</t>
+          <t>A 57454-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45166</v>
+        <v>45630</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5284,7 +5274,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5321,14 +5311,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57727-2024</t>
+          <t>A 29489-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45630.70841435185</v>
+        <v>45824.76096064815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5346,7 +5336,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5383,14 +5373,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35040-2024</t>
+          <t>A 56541-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45527.61861111111</v>
+        <v>45243.57956018519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5402,8 +5392,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5440,14 +5435,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4435-2026</t>
+          <t>A 57727-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46045.62402777778</v>
+        <v>45630.70841435185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5465,7 +5460,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5502,14 +5497,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3575-2025</t>
+          <t>A 35040-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45680.72295138889</v>
+        <v>45527.61861111111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5522,7 +5517,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5559,14 +5554,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29489-2025</t>
+          <t>A 3575-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45824.76096064815</v>
+        <v>45680.72295138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,13 +5573,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5621,14 +5611,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35441-2024</t>
+          <t>A 39285-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45531.4332175926</v>
+        <v>45166</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5640,13 +5630,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>9.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5683,14 +5668,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35443-2024</t>
+          <t>A 39287-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45531.43494212963</v>
+        <v>45166</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5702,13 +5687,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5745,14 +5725,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 62304-2021</t>
+          <t>A 28460-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44503.38475694445</v>
+        <v>45103.36616898148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5764,13 +5744,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5807,14 +5782,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23268-2022</t>
+          <t>A 29490-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44720.40994212963</v>
+        <v>45824.76346064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5828,11 +5803,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5869,14 +5844,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28460-2023</t>
+          <t>A 63733-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45103.36616898148</v>
+        <v>46010</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5888,8 +5863,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5926,14 +5906,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29490-2025</t>
+          <t>A 63734-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45824.76346064815</v>
+        <v>46010</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5947,11 +5927,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5988,14 +5968,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14514-2024</t>
+          <t>A 35441-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45394</v>
+        <v>45531.4332175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6013,7 +5993,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6050,14 +6030,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25982-2025</t>
+          <t>A 35443-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45804.63818287037</v>
+        <v>45531.43494212963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6071,11 +6051,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6112,14 +6092,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15220-2023</t>
+          <t>A 41350-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45019.30383101852</v>
+        <v>45899.65248842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6132,7 +6112,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6169,14 +6149,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15699-2025</t>
+          <t>A 57581-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45748.47081018519</v>
+        <v>45980</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6189,7 +6169,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6226,14 +6206,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25696-2023</t>
+          <t>A 62304-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45089.96881944445</v>
+        <v>44503.38475694445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6245,8 +6225,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6283,14 +6268,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7978-2025</t>
+          <t>A 25982-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45707.46611111111</v>
+        <v>45804.63818287037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,8 +6287,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6340,14 +6330,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41350-2025</t>
+          <t>A 23268-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45899.65248842593</v>
+        <v>44720.40994212963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6359,8 +6349,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6397,14 +6392,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9771-2024</t>
+          <t>A 14514-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45362</v>
+        <v>45394</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6416,8 +6411,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6454,14 +6454,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 37521-2024</t>
+          <t>A 7978-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45541.39284722223</v>
+        <v>45707.46611111111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6473,13 +6473,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6516,14 +6511,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28528-2024</t>
+          <t>A 15220-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45478.3252199074</v>
+        <v>45019.30383101852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6536,7 +6531,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6573,14 +6568,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44577-2023</t>
+          <t>A 15699-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45183</v>
+        <v>45748.47081018519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6593,7 +6588,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6630,14 +6625,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4433-2026</t>
+          <t>A 25696-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46045.62255787037</v>
+        <v>45089.96881944445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6649,13 +6644,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>10.2</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6692,14 +6682,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26016-2023</t>
+          <t>A 9771-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45090.9447337963</v>
+        <v>45362</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6712,7 +6702,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6749,14 +6739,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51111-2024</t>
+          <t>A 42757-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45603.49332175926</v>
+        <v>45908.45122685185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6768,8 +6758,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46904-2024</t>
+          <t>A 37521-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45583.70912037037</v>
+        <v>45541.39284722223</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6825,8 +6820,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28315-2025</t>
+          <t>A 28528-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45818.62765046296</v>
+        <v>45478.3252199074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6920,14 +6920,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32314-2021</t>
+          <t>A 44577-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44371.53730324074</v>
+        <v>45183</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6977,14 +6977,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58127-2024</t>
+          <t>A 26016-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45632.40393518518</v>
+        <v>45090.9447337963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6996,13 +6996,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7039,14 +7034,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59887-2021</t>
+          <t>A 51111-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44494</v>
+        <v>45603.49332175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7058,13 +7053,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7101,14 +7091,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38995-2024</t>
+          <t>A 46904-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45548.41292824074</v>
+        <v>45583.70912037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7121,7 +7111,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7158,14 +7148,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42757-2025</t>
+          <t>A 28315-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45908.45122685185</v>
+        <v>45818.62765046296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7177,13 +7167,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7220,14 +7205,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29488-2025</t>
+          <t>A 53439-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45824</v>
+        <v>45959</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7239,13 +7224,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7282,14 +7262,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29485-2025</t>
+          <t>A 39699-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45824.74728009259</v>
+        <v>45890</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7302,7 +7282,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7339,14 +7319,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13077-2023</t>
+          <t>A 32314-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45002.40217592593</v>
+        <v>44371.53730324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7359,7 +7339,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7396,14 +7376,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62068-2025</t>
+          <t>A 44366-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46006.35954861111</v>
+        <v>45916.45835648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7417,11 +7397,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7458,14 +7438,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62072-2025</t>
+          <t>A 44595-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46006.36180555556</v>
+        <v>45917.42762731481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7477,13 +7457,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7520,14 +7495,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29486-2025</t>
+          <t>A 58127-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45824.75438657407</v>
+        <v>45632.40393518518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7539,8 +7514,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7577,14 +7557,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59845-2023</t>
+          <t>A 59887-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45257.56932870371</v>
+        <v>44494</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7596,8 +7576,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7634,14 +7619,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 14703-2025</t>
+          <t>A 45247-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45742.60491898148</v>
+        <v>45919.60940972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7654,7 +7639,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7691,14 +7676,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30676-2025</t>
+          <t>A 45256-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45831.52273148148</v>
+        <v>45919.62141203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7711,7 +7696,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7748,14 +7733,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39699-2025</t>
+          <t>A 38995-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45890</v>
+        <v>45548.41292824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7768,7 +7753,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7805,14 +7790,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30772-2025</t>
+          <t>A 29488-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45831.61435185185</v>
+        <v>45824</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7824,8 +7809,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7862,14 +7852,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 70783-2021</t>
+          <t>A 29485-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44537</v>
+        <v>45824.74728009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7882,7 +7872,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7919,14 +7909,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44366-2025</t>
+          <t>A 13077-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45916.45835648148</v>
+        <v>45002.40217592593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7938,13 +7928,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7981,14 +7966,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44595-2025</t>
+          <t>A 29486-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45917.42762731481</v>
+        <v>45824.75438657407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8001,7 +7986,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8038,14 +8023,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5441-2026</t>
+          <t>A 59845-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46050.56890046296</v>
+        <v>45257.56932870371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8057,13 +8042,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8100,14 +8080,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31538-2025</t>
+          <t>A 14703-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45833.6284375</v>
+        <v>45742.60491898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,13 +8099,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>11.2</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8162,14 +8137,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31440-2025</t>
+          <t>A 30676-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45833.51048611111</v>
+        <v>45831.52273148148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8182,7 +8157,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8219,14 +8194,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45247-2025</t>
+          <t>A 30772-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45919.60940972222</v>
+        <v>45831.61435185185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8239,7 +8214,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8276,14 +8251,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45256-2025</t>
+          <t>A 70783-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45919.62141203704</v>
+        <v>44537</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8333,14 +8308,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31444-2025</t>
+          <t>A 44985-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45833.51385416667</v>
+        <v>45575.47465277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8353,7 +8328,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8390,14 +8365,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44985-2024</t>
+          <t>A 31538-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45575.47465277778</v>
+        <v>45833.6284375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,8 +8384,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>11.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8447,14 +8427,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 57235-2022</t>
+          <t>A 31440-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44895.67813657408</v>
+        <v>45833.51048611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8467,7 +8447,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8504,14 +8484,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31770-2025</t>
+          <t>A 47265-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45834.50756944445</v>
+        <v>45930.45715277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8524,7 +8504,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8561,14 +8541,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8052-2023</t>
+          <t>A 57235-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44974</v>
+        <v>44895.67813657408</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8581,7 +8561,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8618,14 +8598,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 8053-2023</t>
+          <t>A 31444-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44974</v>
+        <v>45833.51385416667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8638,7 +8618,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8675,14 +8655,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32128-2025</t>
+          <t>A 47262-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45835.50236111111</v>
+        <v>45930.45395833333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,13 +8674,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8737,210 +8712,205 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
+          <t>A 8052-2023</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2" t="inlineStr"/>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A 8053-2023</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="A133" t="inlineStr">
+        <is>
           <t>A 52381-2024</t>
         </is>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B133" s="1" t="n">
         <v>45609.41010416667</v>
       </c>
-      <c r="C131" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
+      <c r="C133" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
         <v>1.4</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" s="2" t="inlineStr"/>
-      <c r="U131">
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" s="2" t="inlineStr"/>
+      <c r="U133">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/knärot/A 52381-2024 karta knärot.png", "A 52381-2024")</f>
         <v/>
       </c>
-      <c r="V131">
+      <c r="V133">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/klagomål/A 52381-2024 FSC-klagomål.docx", "A 52381-2024")</f>
         <v/>
       </c>
-      <c r="W131">
+      <c r="W133">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/klagomålsmail/A 52381-2024 FSC-klagomål mail.docx", "A 52381-2024")</f>
         <v/>
       </c>
-      <c r="X131">
+      <c r="X133">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/tillsyn/A 52381-2024 tillsynsbegäran.docx", "A 52381-2024")</f>
         <v/>
       </c>
-      <c r="Y131">
+      <c r="Y133">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/tillsynsmail/A 52381-2024 tillsynsbegäran mail.docx", "A 52381-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>A 31701-2025</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>45834</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>0</v>
-      </c>
-      <c r="R132" s="2" t="inlineStr"/>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>A 2796-2023</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>44944.70200231481</v>
-      </c>
-      <c r="C133" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" s="2" t="inlineStr"/>
-    </row>
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 40129-2023</t>
+          <t>A 2796-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45169</v>
+        <v>44944.70200231481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8958,7 +8928,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8995,14 +8965,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43021-2021</t>
+          <t>A 31770-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44431.48305555555</v>
+        <v>45834.50756944445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9015,7 +8985,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9052,14 +9022,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48175-2024</t>
+          <t>A 32128-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45589.8465162037</v>
+        <v>45835.50236111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9071,8 +9041,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9109,14 +9084,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14525-2024</t>
+          <t>A 48129-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45394</v>
+        <v>45933.36778935185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9128,13 +9103,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9171,14 +9141,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59401-2022</t>
+          <t>A 31701-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44906.90962962963</v>
+        <v>45834</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9191,7 +9161,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9228,14 +9198,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 18868-2025</t>
+          <t>A 40129-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45764.43010416667</v>
+        <v>45169</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9247,8 +9217,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9285,14 +9260,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47265-2025</t>
+          <t>A 43021-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45930.45715277778</v>
+        <v>44431.48305555555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9305,7 +9280,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9342,14 +9317,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18623-2022</t>
+          <t>A 48175-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44687.44261574074</v>
+        <v>45589.8465162037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9362,7 +9337,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9399,14 +9374,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47262-2025</t>
+          <t>A 48386-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45930.45395833333</v>
+        <v>45933.85197916667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9418,8 +9393,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9456,14 +9436,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6035-2026</t>
+          <t>A 14525-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46052.61423611111</v>
+        <v>45394</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9475,8 +9455,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9513,14 +9498,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48129-2025</t>
+          <t>A 48385-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45933.36778935185</v>
+        <v>45933.84990740741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9532,8 +9517,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9570,14 +9560,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9788-2025</t>
+          <t>A 59401-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45716.54331018519</v>
+        <v>44906.90962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9590,7 +9580,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9627,14 +9617,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 18248-2025</t>
+          <t>A 18868-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45761</v>
+        <v>45764.43010416667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9647,7 +9637,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9684,14 +9674,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48386-2025</t>
+          <t>A 18623-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45933.85197916667</v>
+        <v>44687.44261574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9703,13 +9693,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9746,14 +9731,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48385-2025</t>
+          <t>A 49864-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45933.84990740741</v>
+        <v>45940.52149305555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9765,13 +9750,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9808,14 +9788,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61559-2023</t>
+          <t>A 49985-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45265</v>
+        <v>45942.7809837963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9828,7 +9808,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9865,14 +9845,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2784-2023</t>
+          <t>A 49866-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44944.66162037037</v>
+        <v>45940.53121527778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9884,13 +9864,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9927,14 +9902,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35929-2025</t>
+          <t>A 9788-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45862.61262731482</v>
+        <v>45716.54331018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9947,7 +9922,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9984,14 +9959,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35930-2025</t>
+          <t>A 18248-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45862</v>
+        <v>45761</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10004,7 +9979,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10041,14 +10016,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 6408-2026</t>
+          <t>A 2784-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46055.67207175926</v>
+        <v>44944.66162037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10060,8 +10035,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10098,14 +10078,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1454-2023</t>
+          <t>A 61559-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44937</v>
+        <v>45265</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10118,7 +10098,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10155,14 +10135,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 49864-2025</t>
+          <t>A 1454-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45940.52149305555</v>
+        <v>44937</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10175,7 +10155,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10212,14 +10192,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49985-2025</t>
+          <t>A 42710-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45942.7809837963</v>
+        <v>45566.44601851852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10232,7 +10212,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10269,14 +10249,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49866-2025</t>
+          <t>A 35929-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45940.53121527778</v>
+        <v>45862.61262731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10269,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10326,14 +10306,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 42710-2024</t>
+          <t>A 53251-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45566.44601851852</v>
+        <v>45614.3022337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10326,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10383,14 +10363,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53251-2024</t>
+          <t>A 35930-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45614.3022337963</v>
+        <v>45862</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10383,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10447,7 +10427,7 @@
         <v>45524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10502,14 +10482,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37036-2025</t>
+          <t>A 41684-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45875</v>
+        <v>45176.35422453703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10521,13 +10501,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10564,14 +10539,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16796-2021</t>
+          <t>A 18083-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44295</v>
+        <v>45420.44768518519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10559,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10621,14 +10596,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 41684-2023</t>
+          <t>A 53647-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45176.35422453703</v>
+        <v>45960.52046296297</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10616,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10678,14 +10653,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18083-2024</t>
+          <t>A 37036-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45420.44768518519</v>
+        <v>45875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10697,8 +10672,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10735,14 +10715,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38290-2025</t>
+          <t>A 53645-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45883.44046296296</v>
+        <v>45960.51917824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10735,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10799,7 +10779,7 @@
         <v>44944.67371527778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10854,14 +10834,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 22960-2025</t>
+          <t>A 16796-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45790.53807870371</v>
+        <v>44295</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10874,7 +10854,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10918,7 +10898,7 @@
         <v>45369.69503472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10968,14 +10948,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 53647-2025</t>
+          <t>A 54454-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45960.52046296297</v>
+        <v>45965.55086805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10988,7 +10968,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11025,14 +11005,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 53645-2025</t>
+          <t>A 59111-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45960.51917824074</v>
+        <v>45988.48037037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11045,7 +11025,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11089,7 +11069,7 @@
         <v>45470.79201388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11144,14 +11124,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54454-2025</t>
+          <t>A 38290-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45965.55086805556</v>
+        <v>45883.44046296296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11164,7 +11144,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11208,7 +11188,7 @@
         <v>44795.48201388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,14 +11243,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64011-2025</t>
+          <t>A 25999-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46021.43207175926</v>
+        <v>45090.93861111111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11283,7 +11263,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11320,14 +11300,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 25999-2023</t>
+          <t>A 22960-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45090.93861111111</v>
+        <v>45790.53807870371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11340,7 +11320,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11377,14 +11357,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 64012-2025</t>
+          <t>A 41937-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46021.43547453704</v>
+        <v>45561.57283564815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11397,7 +11377,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11434,14 +11414,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7644-2026</t>
+          <t>A 59697-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46062.37766203703</v>
+        <v>45992.49255787037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11454,7 +11434,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11491,14 +11471,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 41937-2024</t>
+          <t>A 5402-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45561.57283564815</v>
+        <v>44595</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11510,8 +11490,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11548,14 +11533,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5402-2022</t>
+          <t>A 17002-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44595</v>
+        <v>45755</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11567,13 +11552,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11610,14 +11590,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 63731-2025</t>
+          <t>A 873-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46010</v>
+        <v>45665.63168981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11629,13 +11609,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11672,14 +11647,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 64025-2025</t>
+          <t>A 24594-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46021.47168981482</v>
+        <v>44727.4684837963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11692,7 +11667,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11729,14 +11704,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56110-2025</t>
+          <t>A 54444-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45973.73524305555</v>
+        <v>45233.4384375</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11749,7 +11724,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11786,14 +11761,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 63732-2025</t>
+          <t>A 60878-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46010</v>
+        <v>45999.55688657407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11807,11 +11782,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11848,14 +11823,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 17002-2025</t>
+          <t>A 60877-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45755</v>
+        <v>45999.55611111111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11867,8 +11842,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11905,14 +11885,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63733-2025</t>
+          <t>A 42778-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46010</v>
+        <v>45566.52706018519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11924,13 +11904,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11967,14 +11942,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63734-2025</t>
+          <t>A 30136-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46010</v>
+        <v>45489.56859953704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11986,13 +11961,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12029,14 +11999,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57581-2025</t>
+          <t>A 14738-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45980</v>
+        <v>45742.64620370371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12049,7 +12019,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12086,14 +12056,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 24594-2022</t>
+          <t>A 65313-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44727.4684837963</v>
+        <v>44515.62417824074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12106,7 +12076,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12143,14 +12113,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 54444-2023</t>
+          <t>A 16918-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45233.4384375</v>
+        <v>45755.37185185185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12162,8 +12132,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12200,14 +12175,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53439-2025</t>
+          <t>A 4436-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45959</v>
+        <v>46045.62513888889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12219,8 +12194,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12257,14 +12237,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 9130-2026</t>
+          <t>A 4430-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46069.71768518518</v>
+        <v>46045.62002314815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12276,8 +12256,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12314,14 +12299,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42778-2024</t>
+          <t>A 26017-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45566.52706018519</v>
+        <v>45090.95387731482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12319,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12371,14 +12356,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 30136-2024</t>
+          <t>A 4439-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45489.56859953704</v>
+        <v>46045.63331018519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12390,8 +12375,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>14.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12428,14 +12418,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14738-2025</t>
+          <t>A 50985-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45742.64620370371</v>
+        <v>45218.53603009259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12447,8 +12437,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12485,14 +12480,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 4448-2026</t>
+          <t>A 12208-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46045.63888888889</v>
+        <v>44266.65693287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12504,13 +12499,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12547,14 +12537,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 65313-2021</t>
+          <t>A 4454-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44515.62417824074</v>
+        <v>46045.64197916666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12566,8 +12556,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12604,14 +12599,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16918-2025</t>
+          <t>A 10415-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45755.37185185185</v>
+        <v>45720.63358796296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12623,13 +12618,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12666,14 +12656,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 26017-2023</t>
+          <t>A 4435-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45090.95387731482</v>
+        <v>46045.62402777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12685,8 +12675,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12723,14 +12718,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50985-2023</t>
+          <t>A 4433-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45218.53603009259</v>
+        <v>46045.62255787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12744,11 +12739,11 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12785,14 +12780,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12208-2021</t>
+          <t>A 41689-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44266.65693287037</v>
+        <v>45176</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12805,7 +12800,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12842,14 +12837,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59111-2025</t>
+          <t>A 62068-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45988.48037037037</v>
+        <v>46006.35954861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12861,8 +12856,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12899,14 +12899,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10415-2025</t>
+          <t>A 62072-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45720.63358796296</v>
+        <v>46006.36180555556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12918,8 +12918,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12956,14 +12961,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59697-2025</t>
+          <t>A 57915-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45992.49255787037</v>
+        <v>45631.49766203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12975,8 +12980,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13013,14 +13023,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 41689-2023</t>
+          <t>A 41943-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45176</v>
+        <v>45561.57412037037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13033,7 +13043,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13070,14 +13080,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 873-2025</t>
+          <t>A 5441-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45665.63168981481</v>
+        <v>46050.56890046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13089,8 +13099,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13127,14 +13142,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 57915-2024</t>
+          <t>A 13252-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45631.49766203704</v>
+        <v>45386.57976851852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13146,13 +13161,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13189,14 +13199,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 41943-2024</t>
+          <t>A 59045-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45561.57412037037</v>
+        <v>45252.7372800926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13208,8 +13218,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13246,14 +13261,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 13252-2024</t>
+          <t>A 6035-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45386.57976851852</v>
+        <v>46052.61423611111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13266,7 +13281,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13303,14 +13318,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60878-2025</t>
+          <t>A 6408-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45999.55688657407</v>
+        <v>46055.67207175926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13322,13 +13337,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13365,14 +13375,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59045-2023</t>
+          <t>A 59399-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45252.7372800926</v>
+        <v>44906.89612268518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13384,13 +13394,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13427,14 +13432,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 60877-2025</t>
+          <t>A 48888-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45999.55611111111</v>
+        <v>45209</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13446,13 +13451,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13489,14 +13489,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59399-2022</t>
+          <t>A 64011-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44906.89612268518</v>
+        <v>46021.43207175926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13546,14 +13546,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 48888-2023</t>
+          <t>A 64012-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45209</v>
+        <v>46021.43547453704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13603,14 +13603,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 48174-2024</t>
+          <t>A 7644-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45589.84282407408</v>
+        <v>46062.37766203703</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13660,14 +13660,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7652-2023</t>
+          <t>A 48174-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44972</v>
+        <v>45589.84282407408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13717,14 +13717,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23500-2023</t>
+          <t>A 64025-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45076</v>
+        <v>46021.47168981482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13774,14 +13774,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61542-2023</t>
+          <t>A 7652-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45265</v>
+        <v>44972</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13831,14 +13831,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 21978-2021</t>
+          <t>A 23500-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44323</v>
+        <v>45076</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13888,14 +13888,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 42661-2021</t>
+          <t>A 61542-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44428</v>
+        <v>45265</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13907,13 +13907,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13950,14 +13945,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9337-2025</t>
+          <t>A 9130-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45714</v>
+        <v>46069.71768518518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13965,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14007,14 +14002,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 58533-2023</t>
+          <t>A 21978-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45251</v>
+        <v>44323</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14027,7 +14022,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14064,14 +14059,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 58152-2022</t>
+          <t>A 4448-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44900</v>
+        <v>46045.63888888889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,8 +14078,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14121,14 +14121,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 37363-2022</t>
+          <t>A 42661-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44809</v>
+        <v>44428</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14183,14 +14183,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 29357-2024</t>
+          <t>A 9337-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45483</v>
+        <v>45714</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14202,13 +14202,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14245,14 +14240,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 10007-2025</t>
+          <t>A 58533-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45719.45627314815</v>
+        <v>45251</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14265,7 +14260,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14302,14 +14297,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 53247-2023</t>
+          <t>A 58152-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45229.50737268518</v>
+        <v>44900</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14322,7 +14317,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14359,324 +14354,329 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
+          <t>A 37363-2022</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" s="2" t="inlineStr"/>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>A 29357-2024</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>45483</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229" ht="15" customHeight="1">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>A 10007-2025</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>45719.45627314815</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" s="2" t="inlineStr"/>
+    </row>
+    <row r="230" ht="15" customHeight="1">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>A 53247-2023</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>45229.50737268518</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231" ht="15" customHeight="1">
+      <c r="A231" t="inlineStr">
+        <is>
           <t>A 412-2023</t>
         </is>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B231" s="1" t="n">
         <v>44929</v>
       </c>
-      <c r="C227" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
+      <c r="C231" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>KARLSBORG</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
         <v>1.3</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0</v>
-      </c>
-      <c r="L227" t="n">
-        <v>0</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0</v>
-      </c>
-      <c r="P227" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>0</v>
-      </c>
-      <c r="R227" s="2" t="inlineStr"/>
-      <c r="T227">
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" s="2" t="inlineStr"/>
+      <c r="T231">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/kartor/A 412-2023 karta.png", "A 412-2023")</f>
         <v/>
       </c>
-      <c r="V227">
+      <c r="V231">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/klagomål/A 412-2023 FSC-klagomål.docx", "A 412-2023")</f>
         <v/>
       </c>
-      <c r="W227">
+      <c r="W231">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/klagomålsmail/A 412-2023 FSC-klagomål mail.docx", "A 412-2023")</f>
         <v/>
       </c>
-      <c r="X227">
+      <c r="X231">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/tillsyn/A 412-2023 tillsynsbegäran.docx", "A 412-2023")</f>
         <v/>
       </c>
-      <c r="Y227">
+      <c r="Y231">
         <f>HYPERLINK("https://klasma.github.io/Logging_1446/tillsynsmail/A 412-2023 tillsynsbegäran mail.docx", "A 412-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>A 54623-2024</t>
-        </is>
-      </c>
-      <c r="B228" s="1" t="n">
-        <v>45617.76770833333</v>
-      </c>
-      <c r="C228" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
-      <c r="L228" t="n">
-        <v>0</v>
-      </c>
-      <c r="M228" t="n">
-        <v>0</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0</v>
-      </c>
-      <c r="P228" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q228" t="n">
-        <v>0</v>
-      </c>
-      <c r="R228" s="2" t="inlineStr"/>
-    </row>
-    <row r="229" ht="15" customHeight="1">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>A 43709-2024</t>
-        </is>
-      </c>
-      <c r="B229" s="1" t="n">
-        <v>45569</v>
-      </c>
-      <c r="C229" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
-        <v>4</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0</v>
-      </c>
-      <c r="L229" t="n">
-        <v>0</v>
-      </c>
-      <c r="M229" t="n">
-        <v>0</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0</v>
-      </c>
-      <c r="P229" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q229" t="n">
-        <v>0</v>
-      </c>
-      <c r="R229" s="2" t="inlineStr"/>
-    </row>
-    <row r="230" ht="15" customHeight="1">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>A 29685-2022</t>
-        </is>
-      </c>
-      <c r="B230" s="1" t="n">
-        <v>44755.30305555555</v>
-      </c>
-      <c r="C230" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0</v>
-      </c>
-      <c r="L230" t="n">
-        <v>0</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0</v>
-      </c>
-      <c r="P230" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q230" t="n">
-        <v>0</v>
-      </c>
-      <c r="R230" s="2" t="inlineStr"/>
-    </row>
-    <row r="231" ht="15" customHeight="1">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>A 59712-2021</t>
-        </is>
-      </c>
-      <c r="B231" s="1" t="n">
-        <v>44494</v>
-      </c>
-      <c r="C231" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>0</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0</v>
-      </c>
-      <c r="L231" t="n">
-        <v>0</v>
-      </c>
-      <c r="M231" t="n">
-        <v>0</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0</v>
-      </c>
-      <c r="P231" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>0</v>
-      </c>
-      <c r="R231" s="2" t="inlineStr"/>
-    </row>
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56545-2023</t>
+          <t>A 54623-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45243.58105324074</v>
+        <v>45617.76770833333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14688,13 +14688,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14731,14 +14726,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61211-2022</t>
+          <t>A 43709-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44908</v>
+        <v>45569</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14751,7 +14746,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>8.1</v>
+        <v>4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14788,14 +14783,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 57913-2024</t>
+          <t>A 29685-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45631.49569444444</v>
+        <v>44755.30305555555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14805,11 +14800,6 @@
       <c r="E234" t="inlineStr">
         <is>
           <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -14850,14 +14840,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7977-2025</t>
+          <t>A 59712-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45707.46462962963</v>
+        <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14869,8 +14859,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14907,14 +14902,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59047-2023</t>
+          <t>A 56545-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45252.73967592593</v>
+        <v>45243.58105324074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14928,11 +14923,11 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14969,14 +14964,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 41923-2024</t>
+          <t>A 61211-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45561</v>
+        <v>44908</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14989,7 +14984,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15026,14 +15021,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 38103-2023</t>
+          <t>A 57913-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45161</v>
+        <v>45631.49569444444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15045,8 +15040,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15083,14 +15083,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 58129-2024</t>
+          <t>A 7977-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45632.40585648148</v>
+        <v>45707.46462962963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15102,13 +15102,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15145,14 +15140,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 13010-2025</t>
+          <t>A 59047-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45734.52155092593</v>
+        <v>45252.73967592593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15164,8 +15159,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>7.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15202,14 +15202,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 14522-2024</t>
+          <t>A 41923-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45394.62971064815</v>
+        <v>45561</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15221,13 +15221,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15264,14 +15259,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 6463-2025</t>
+          <t>A 38103-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45699.56878472222</v>
+        <v>45161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15284,7 +15279,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15321,14 +15316,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 48884-2023</t>
+          <t>A 58129-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45209</v>
+        <v>45632.40585648148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15340,8 +15335,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15378,14 +15378,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59890-2021</t>
+          <t>A 13010-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44494</v>
+        <v>45734.52155092593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15395,11 +15395,6 @@
       <c r="E244" t="inlineStr">
         <is>
           <t>KARLSBORG</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G244" t="n">
@@ -15440,14 +15435,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 59404-2022</t>
+          <t>A 14522-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44906.9374537037</v>
+        <v>45394.62971064815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15459,8 +15454,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15497,14 +15497,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 36820-2022</t>
+          <t>A 6463-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44805.55697916666</v>
+        <v>45699.56878472222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15554,14 +15554,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 69341-2021</t>
+          <t>A 48884-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44531</v>
+        <v>45209</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15611,14 +15611,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 25697-2023</t>
+          <t>A 59890-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45089.98043981481</v>
+        <v>44494</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15630,8 +15630,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15668,14 +15673,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 34125-2024</t>
+          <t>A 59404-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45524.31809027777</v>
+        <v>44906.9374537037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15687,13 +15692,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15730,14 +15730,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 15396-2024</t>
+          <t>A 36820-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45401</v>
+        <v>44805.55697916666</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15787,14 +15787,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 59877-2021</t>
+          <t>A 69341-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44494</v>
+        <v>44531</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15806,13 +15806,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15849,14 +15844,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 8990-2025</t>
+          <t>A 25697-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45713.54516203704</v>
+        <v>45089.98043981481</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15868,13 +15863,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15911,14 +15901,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 27823-2023</t>
+          <t>A 34125-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45098.5205787037</v>
+        <v>45524.31809027777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15930,8 +15920,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15968,14 +15963,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 53898-2023</t>
+          <t>A 15396-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45231.54010416667</v>
+        <v>45401</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15988,7 +15983,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16025,14 +16020,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 45019-2024</t>
+          <t>A 59877-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45575.49673611111</v>
+        <v>44494</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16044,8 +16039,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16082,14 +16082,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 24008-2023</t>
+          <t>A 8990-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45078.67081018518</v>
+        <v>45713.54516203704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16101,8 +16101,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16139,14 +16144,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 42825-2024</t>
+          <t>A 27823-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45566.60034722222</v>
+        <v>45098.5205787037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16159,7 +16164,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16196,14 +16201,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 13659-2024</t>
+          <t>A 53898-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45390.48613425926</v>
+        <v>45231.54010416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16215,13 +16220,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>5.3</v>
+        <v>9.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16258,14 +16258,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 58573-2023</t>
+          <t>A 45019-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45251</v>
+        <v>45575.49673611111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16315,14 +16315,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 37383-2022</t>
+          <t>A 24008-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44809.40762731482</v>
+        <v>45078.67081018518</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16334,13 +16334,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16377,14 +16372,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 56495-2023</t>
+          <t>A 42825-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45243.52725694444</v>
+        <v>45566.60034722222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16397,7 +16392,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16434,14 +16429,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 26467-2021</t>
+          <t>A 13659-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44348.39732638889</v>
+        <v>45390.48613425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16455,11 +16450,11 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16496,14 +16491,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 53909-2023</t>
+          <t>A 58573-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45231.55700231482</v>
+        <v>45251</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16516,7 +16511,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16553,14 +16548,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 37519-2024</t>
+          <t>A 37383-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45541.39113425926</v>
+        <v>44809.40762731482</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16578,7 +16573,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>9.800000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16615,14 +16610,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2100-2023</t>
+          <t>A 56495-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44939.71349537037</v>
+        <v>45243.52725694444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16635,7 +16630,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16672,14 +16667,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 17908-2025</t>
+          <t>A 26467-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45758.73297453704</v>
+        <v>44348.39732638889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16691,8 +16686,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16729,14 +16729,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 42598-2024</t>
+          <t>A 53909-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45565.70193287037</v>
+        <v>45231.55700231482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>8.9</v>
+        <v>2.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16786,14 +16786,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 40128-2023</t>
+          <t>A 37519-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45169</v>
+        <v>45541.39113425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16807,11 +16807,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16848,14 +16848,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 15656-2024</t>
+          <t>A 2100-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45404</v>
+        <v>44939.71349537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16905,14 +16905,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 42724-2024</t>
+          <t>A 17908-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45566.46574074074</v>
+        <v>45758.73297453704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16962,14 +16962,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 15958-2022</t>
+          <t>A 42598-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44664.84104166667</v>
+        <v>45565.70193287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16981,13 +16981,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>3.4</v>
+        <v>8.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17024,14 +17019,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 20564-2024</t>
+          <t>A 40128-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45436</v>
+        <v>45169</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17043,8 +17038,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17081,14 +17081,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 53898-2021</t>
+          <t>A 15656-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44469.70724537037</v>
+        <v>45404</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17138,14 +17138,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 45224-2021</t>
+          <t>A 42724-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44439.5778587963</v>
+        <v>45566.46574074074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17195,14 +17195,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 54416-2024</t>
+          <t>A 15958-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45617</v>
+        <v>44664.84104166667</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17214,8 +17214,13 @@
           <t>KARLSBORG</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17252,14 +17257,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 22435-2025</t>
+          <t>A 20564-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45786.58416666667</v>
+        <v>45436</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17271,13 +17276,8 @@
           <t>KARLSBORG</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17314,14 +17314,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22761-2025</t>
+          <t>A 53898-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45789.6207175926</v>
+        <v>44469.70724537037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45776</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45387.35072916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45387.36229166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45545.5043287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45184.75254629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45775.48</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45771.49649305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45824.74599537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45764.43978009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45075</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44361.48423611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44519.41203703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44584.74694444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44536.64174768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44315.61004629629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44343.74252314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44292.42471064815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44266.66760416667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44538.49733796297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44315.46325231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44785.51939814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44469.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44266.65212962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44285</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44266</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44687.44456018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44426</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44785.52291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44538.5125462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44795.48758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44795.48535879629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44785.52829861111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44785.53045138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>45524.30751157407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>45524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45722.68349537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45768.8713425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45768.87210648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45160.77502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44538.50564814815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>45630</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45566.496875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>45243.57956018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45166</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44503.38475694445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45531.4332175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45531.43494212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44720.40994212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45394</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>45019.30383101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45748.47081018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45541.39284722223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45478.3252199074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45089.96881944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45183</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45090.9447337963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45603.49332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45632.40393518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44371.53730324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44494</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45548.41292824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45002.40217592593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45583.70912037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>45257.56932870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>45818.62765046296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45742.60491898148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44537</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45575.47465277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45824</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44895.67813657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45824.74728009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45824.76096064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>45824.75438657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44974</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45609.41010416667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44944.70200231481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45169</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45103.36616898148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45824.76346064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45831.52273148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44431.48305555555</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45589.8465162037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45394</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45831.61435185185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44906.90962962963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45833.6284375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45833.51048611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45764.43010416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45899.65248842593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45833.51385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44687.44261574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45834.50756944445</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45835.50236111111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45834</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45908.45122685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44944.66162037037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44937</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45566.44601851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>45614.3022337963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45890</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45916.45835648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45176.35422453703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45917.42762731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45716.54331018519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45420.44768518519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45761</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45919.60940972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45919.62141203704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45265</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45862.61262731482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44944.67371527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45862</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45369.69503472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45470.79201388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45930.45715277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44795.48201388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45930.45395833333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44295</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45090.93861111111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>45933.36778935185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45561.57283564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45933.85197916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45883.44046296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45933.84990740741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45755</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45790.53807870371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45940.52149305555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45942.7809837963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44727.4684837963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45940.53121527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45233.4384375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>45566.52706018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45489.56859953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>45742.64620370371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44515.62417824074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>45755.37185185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45090.95387731482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45218.53603009259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44266.65693287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45720.63358796296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45960.52046296297</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45176</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45960.51917824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45965.55086805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45631.49766203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>45561.57412037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>45386.57976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>45252.7372800926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>46010</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45973.73524305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>46010</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>46010</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44906.89612268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45980</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45209</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45589.84282407408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45988.48037037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44972</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45076</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45992.49255787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45265</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45665.63168981481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44323</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45999.55688657407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45999.55611111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>45251</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>46045.62513888889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>46045.62002314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>46045.63331018519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>46045.64197916666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>46045.62402777778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45483</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>46045.62255787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45719.45627314815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>46006.35954861111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>46006.36180555556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>45229.50737268518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44929</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45617.76770833333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>46050.56890046296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45569</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44755.30305555555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>46052.61423611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>46055.67207175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44494</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45243.58105324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>46021.43207175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>46021.43547453704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>46062.37766203703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>46021.47168981482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45631.49569444444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>45707.46462962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>46069.71768518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45252.73967592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45561</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>46045.63888888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45632.40585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45734.52155092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45394.62971064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45699.56878472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45209</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44906.9374537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44805.55697916666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44531</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>45089.98043981481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45524.31809027777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45401</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44494</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45713.54516203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45098.5205787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45231.54010416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45575.49673611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45078.67081018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45566.60034722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45251</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44809.40762731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45243.52725694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44348.39732638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45231.55700231482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45541.39113425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44939.71349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45758.73297453704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45565.70193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45169</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45404</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45566.46574074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44664.84104166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44469.70724537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44439.5778587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45617</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45786.58416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45789.6207175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45734.51854166666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45743.4346875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45721.76960648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45713.53513888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45630.70841435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45527.61861111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45680.72295138889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45804.63818287037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45707.46611111111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44929</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45776</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45387.35072916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>44448</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45387.36229166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45545.5043287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45184.75254629629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45775.48</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45771.49649305556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45824.74599537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45764.43978009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45075</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44361.48423611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44519.41203703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44584.74694444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44536.64174768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44315.61004629629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44343.74252314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44292.42471064815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44266.66760416667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44538.49733796297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44315.46325231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44785.51939814815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44469.47734953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44266.65212962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44285</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>44427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44266</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44687.44456018518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44426</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44785.52291666667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44538.5125462963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>44795.48758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44795.48535879629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44785.52829861111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44785.53045138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>45453</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44595</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>45002</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>45524.30751157407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>45524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45722.68349537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45768.8713425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45768.87210648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45160.77502314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44538.50564814815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>45630</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45566.496875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>45243.57956018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45166</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44503.38475694445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45531.4332175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45531.43494212963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>44720.40994212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45394</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>45019.30383101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45748.47081018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45541.39284722223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45478.3252199074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45089.96881944445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45183</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45090.9447337963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45603.49332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45632.40393518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44371.53730324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44494</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45548.41292824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45002.40217592593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45583.70912037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>45257.56932870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>45818.62765046296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45742.60491898148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>44537</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45575.47465277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45824</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44895.67813657408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45824.74728009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45824.76096064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>45824.75438657407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44974</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>45609.41010416667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>44944.70200231481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45169</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45103.36616898148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>45824.76346064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45831.52273148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44431.48305555555</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45589.8465162037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45394</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45831.61435185185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44906.90962962963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45833.6284375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45833.51048611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45764.43010416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45899.65248842593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45833.51385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>44687.44261574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45834.50756944445</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45835.50236111111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45834</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45908.45122685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44944.66162037037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         <v>44937</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45566.44601851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>45614.3022337963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>45524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45890</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45916.45835648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45176.35422453703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45917.42762731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>45716.54331018519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45420.44768518519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45761</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45919.60940972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45919.62141203704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45265</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45862.61262731482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>44944.67371527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45862</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45369.69503472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45470.79201388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45930.45715277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44795.48201388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>45930.45395833333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44295</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45090.93861111111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>45933.36778935185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45561.57283564815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44595</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45933.85197916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45883.44046296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45933.84990740741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45755</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45790.53807870371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45940.52149305555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45942.7809837963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44727.4684837963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45940.53121527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45233.4384375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>45566.52706018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45489.56859953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>45742.64620370371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44515.62417824074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>45755.37185185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45090.95387731482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45218.53603009259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44266.65693287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45720.63358796296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45960.52046296297</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45176</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45960.51917824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45965.55086805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10997,7 +10997,7 @@
         <v>45631.49766203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>45561.57412037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>45386.57976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>45252.7372800926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>46010</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45973.73524305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>46010</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>46010</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44906.89612268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45980</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45209</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>45959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45589.84282407408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45988.48037037037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44972</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45076</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45992.49255787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45265</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45665.63168981481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>44323</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44428</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45999.55688657407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45999.55611111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45714</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>45251</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>46045.62513888889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>46045.62002314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44900</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>46045.63331018519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>46045.64197916666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>46045.62402777778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>45483</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>46045.62255787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45719.45627314815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>46006.35954861111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>46006.36180555556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>45229.50737268518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>44929</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45617.76770833333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>46050.56890046296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45569</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>44755.30305555555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>46052.61423611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>46055.67207175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>44494</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45243.58105324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44908</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>46021.43207175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>46021.43547453704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>46062.37766203703</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>46021.47168981482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45631.49569444444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>45707.46462962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>46069.71768518518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45252.73967592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45561</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>46045.63888888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45632.40585648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45734.52155092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45394.62971064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45699.56878472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45209</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44906.9374537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>44805.55697916666</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>44531</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>45089.98043981481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45524.31809027777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45401</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44494</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45713.54516203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45098.5205787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45231.54010416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45575.49673611111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45078.67081018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45566.60034722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45251</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44809.40762731482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>45243.52725694444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44348.39732638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45231.55700231482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45541.39113425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44939.71349537037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45758.73297453704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45565.70193287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45169</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45404</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45566.46574074074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44664.84104166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>44469.70724537037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44439.5778587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45617</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45786.58416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45789.6207175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45734.51854166666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45743.4346875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45721.76960648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45713.53513888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45630.70841435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45527.61861111111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45680.72295138889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45804.63818287037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45707.46611111111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>

--- a/Översikt KARLSBORG.xlsx
+++ b/Översikt KARLSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44929</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45776</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44448</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45387.35072916667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>45741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45776</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>45387.36229166666</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45545.5043287037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>45771.49649305556</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>45775.48</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45184.75254629629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44448</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>45824.74599537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45075</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45764.43978009259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44361.48423611111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44519.41203703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44584.74694444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44536.64174768519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44315.61004629629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44343.74252314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44266.66760416667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44292.42471064815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44538.49733796297</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44315.46325231482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44785.51939814815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>44469.47734953704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44266.65212962963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44285</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44427</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44266</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>44687.44456018518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44785.52291666667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44538.5125462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>44599</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44795.48758101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44795.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44785.52829861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44785.53045138889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>44805.55697916666</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>44266.65693287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44375</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>45090.93861111111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>45090.9447337963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>45394.62971064815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>45243.57956018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44431.48305555555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45231.54010416667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44974</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45251</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45470.79201388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44974</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>45483</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45265</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44515.62417824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45176.35422453703</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45548.41292824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45632.40585648148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45420.44768518519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44908</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45589.8465162037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45883.44046296296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45362</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>45742.60491898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>45790.53807870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45707.46611111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44595</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45824.76096064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>44720.40994212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>45566.496875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>45565.70193287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>45002</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>45583.70912037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45531.4332175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>45531.43494212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45818.62765046296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>45824.76346064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>44937</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45566.46574074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45103.36616898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45722.68349537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45404</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45575.47465277778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45824.74728009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>45824.75438657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44906.90962962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>45209</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>45899.65248842593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>45589.84282407408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45831.61435185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>45831.52273148148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>45908.45122685185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45834.50756944445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>45833.51048611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>45713.54516203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45833.51385416667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45834</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>45833.6284375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>45835.50236111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>45748.47081018519</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44929</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45369.69503472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45614.3022337963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45916.45835648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45761</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>45716.54331018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>45257.56932870371</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45265</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>45890</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45002.40217592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45917.42762731481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45862.61262731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45862</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44900</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>45919.60940972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>45919.62141203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44755.30305555555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44323</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44727.4684837963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>45699.56878472222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>45169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>45930.45715277778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>45930.45395833333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>44295</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>45453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>45875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>45229.50737268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45933.85197916667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45617.76770833333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45764.43010416667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45933.84990740741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45933.36778935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>45940.53121527778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>45940.52149305555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>45251</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>45755</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45942.7809837963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>44538.50564814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45566.44601851852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45089.96881944445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45566.52706018519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45541.39284722223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45758.73297453704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>44348.39732638889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44944.66162037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45098.5205787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45169</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45394</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>45078.67081018518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44537</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45960.51917824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44944.67371527778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45960.52046296297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>45965.55086805556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45575.49673611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>46010</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>46010</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45524.30751157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45524</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45524.31809027777</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>45973.73524305555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>46010</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>46010</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45719.45627314815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45980</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45541.39113425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45959</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>45988.48037037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>44531</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45569</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45714</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45992.49255787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45631.49569444444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45742.64620370371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>45665.63168981481</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45076</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45999.55611111111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>45561.57283564815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45999.55688657407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>45233.4384375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>45218.53603009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>45609.41010416667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>46045.63331018519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>46006.35954861111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>46045.64197916666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>46045.62402777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>46006.36180555556</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>46045.62002314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>46045.62255787037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>46045.62513888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45176</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>46050.56890046296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>46052.61423611111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>45243.58105324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>45161</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>46055.67207175926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45231.55700231482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45183</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45720.63358796296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45252.73967592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>46062.37766203703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44809.40762731482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>46021.43207175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>46021.43547453704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>46021.47168981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>45755.37185185185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45734.52155092593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>46069.71768518518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>46045.63888888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45566.60034722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45252.7372800926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44895.67813657408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44371.53730324074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45768.8713425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45768.87210648148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44906.9374537037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44503.38475694445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>44664.84104166667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45401</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45489.56859953704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45436</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44939.71349537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>46079.30614583333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45089.98043981481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45090.95387731482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45561</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44687.44261574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44906.89612268518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44809</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44972</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45166</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45166</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45394</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44795.48201388889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45632.40393518518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45019.30383101852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44944.70200231481</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45390.48613425926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>45630</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45209</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45243.52725694444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45603.49332175926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44428</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>45160.77502314815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45478.3252199074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>45386.57976851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45561.57412037037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45707.46462962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>45631.49766203704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>44469.70724537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44439.5778587963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45617</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45786.58416666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45789.6207175926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45734.51854166666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45743.4346875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45713.53513888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45721.76960648148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45680.72295138889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45527.61861111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45630.70841435185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45804.63818287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
